--- a/Bao cao TTCSN/Mẫu_ke hoach-lam-viec-nhom.xlsx
+++ b/Bao cao TTCSN/Mẫu_ke hoach-lam-viec-nhom.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Báo cáo TTCSN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Báo cáo TTCSN\Bao cao TTCSN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900B43CD-3819-4F2B-8291-14CB2B20CC37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B524409-9652-466C-A93E-90BD4955687C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -591,7 +591,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
